--- a/biology/Botanique/Hydrastis_canadensis/Hydrastis_canadensis.xlsx
+++ b/biology/Botanique/Hydrastis_canadensis/Hydrastis_canadensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrastis canadensis, ou Hydraste du Canada, est une espèce de plantes dicotylédones d'Amérique du Nord de la famille des Ranunculaceae.
 Les fleurs et les feuilles sont terminales. C'est une espèce vivace par un rhizome (tige souterraine).
